--- a/result/zernike_14_moment_times_CPU_30P_6K.xlsx
+++ b/result/zernike_14_moment_times_CPU_30P_6K.xlsx
@@ -483,28 +483,28 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>1.252251135715927</v>
+        <v>1.121135658773199</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.359433797296646</v>
+        <v>-1.388817701934042</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05153775215148926</v>
+        <v>0.04603338241577148</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08458065986633301</v>
+        <v>0.08498358726501465</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1581404209136963</v>
+        <v>0.1154410839080811</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2415363788604736</v>
+        <v>0.1747488975524902</v>
       </c>
       <c r="I2" t="n">
-        <v>0.339123010635376</v>
+        <v>0.2612740993499756</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4674291610717773</v>
+        <v>0.3599746227264404</v>
       </c>
     </row>
     <row r="3">
@@ -517,28 +517,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>1.274495373764025</v>
+        <v>1.240792170502693</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.9719420822197219</v>
+        <v>-0.9943797279126607</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1241376399993896</v>
+        <v>0.1209075450897217</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2221176624298096</v>
+        <v>0.1970436573028564</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3779721260070801</v>
+        <v>0.3442380428314209</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5905938148498535</v>
+        <v>0.5460958480834961</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8729302883148193</v>
+        <v>0.7810475826263428</v>
       </c>
       <c r="J3" t="n">
-        <v>1.201682567596436</v>
+        <v>1.084566831588745</v>
       </c>
     </row>
     <row r="4">
@@ -551,28 +551,28 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>1.313995126901619</v>
+        <v>1.305564324593402</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6143855150297184</v>
+        <v>-0.6259351298887873</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2871706485748291</v>
+        <v>0.2797458171844482</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5074787139892578</v>
+        <v>0.4919202327728271</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8965373039245605</v>
+        <v>0.8599386215209961</v>
       </c>
       <c r="H4" t="n">
-        <v>1.423904418945312</v>
+        <v>1.377722978591919</v>
       </c>
       <c r="I4" t="n">
-        <v>2.125519514083862</v>
+        <v>2.038942337036133</v>
       </c>
       <c r="J4" t="n">
-        <v>2.95893669128418</v>
+        <v>2.83875584602356</v>
       </c>
     </row>
     <row r="5">
@@ -585,28 +585,28 @@
         <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>1.354759195575713</v>
+        <v>1.29840911826015</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3372014751372371</v>
+        <v>-0.2963277715806527</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5399410724639893</v>
+        <v>0.5889532566070557</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9900805950164795</v>
+        <v>1.066093444824219</v>
       </c>
       <c r="G5" t="n">
-        <v>1.791740655899048</v>
+        <v>1.840552568435669</v>
       </c>
       <c r="H5" t="n">
-        <v>2.889662265777588</v>
+        <v>2.904454469680786</v>
       </c>
       <c r="I5" t="n">
-        <v>4.261595487594604</v>
+        <v>4.282859086990356</v>
       </c>
       <c r="J5" t="n">
-        <v>5.971414089202881</v>
+        <v>5.948359966278076</v>
       </c>
     </row>
     <row r="6">
@@ -619,28 +619,28 @@
         <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>1.417280445285791</v>
+        <v>1.318510317595133</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1159130132489015</v>
+        <v>-0.04900194102716383</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8905353546142578</v>
+        <v>1.057173490524292</v>
       </c>
       <c r="F6" t="n">
-        <v>1.737731456756592</v>
+        <v>1.867565870285034</v>
       </c>
       <c r="G6" t="n">
-        <v>3.187311410903931</v>
+        <v>3.30520486831665</v>
       </c>
       <c r="H6" t="n">
-        <v>5.353062152862549</v>
+        <v>5.288453340530396</v>
       </c>
       <c r="I6" t="n">
-        <v>7.806275129318237</v>
+        <v>7.848483562469482</v>
       </c>
       <c r="J6" t="n">
-        <v>10.96626710891724</v>
+        <v>10.98185634613037</v>
       </c>
     </row>
     <row r="7">
@@ -653,28 +653,28 @@
         <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>1.455824757595231</v>
+        <v>1.3552131209084</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07772594727573215</v>
+        <v>0.1399570298821159</v>
       </c>
       <c r="E7" t="n">
-        <v>1.383206844329834</v>
+        <v>1.630644559860229</v>
       </c>
       <c r="F7" t="n">
-        <v>2.811540603637695</v>
+        <v>3.00954008102417</v>
       </c>
       <c r="G7" t="n">
-        <v>5.253547668457031</v>
+        <v>5.202863931655884</v>
       </c>
       <c r="H7" t="n">
-        <v>8.6409752368927</v>
+        <v>8.580701112747192</v>
       </c>
       <c r="I7" t="n">
-        <v>13.03104090690613</v>
+        <v>12.91218638420105</v>
       </c>
       <c r="J7" t="n">
-        <v>18.37828373908997</v>
+        <v>18.21428728103638</v>
       </c>
     </row>
     <row r="8">
@@ -687,28 +687,28 @@
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>1.945463215082192</v>
+        <v>2.153771242489142</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.6511620611344293</v>
+        <v>-0.7256228726643903</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2032527923583984</v>
+        <v>0.1736469268798828</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9980652332305908</v>
+        <v>0.8527853488922119</v>
       </c>
       <c r="G8" t="n">
-        <v>1.830925703048706</v>
+        <v>2.313364267349243</v>
       </c>
       <c r="H8" t="n">
-        <v>3.551228761672974</v>
+        <v>4.047074556350708</v>
       </c>
       <c r="I8" t="n">
-        <v>5.097091674804688</v>
+        <v>5.690278053283691</v>
       </c>
       <c r="J8" t="n">
-        <v>6.672609090805054</v>
+        <v>8.003459692001343</v>
       </c>
     </row>
     <row r="9">
@@ -721,28 +721,28 @@
         <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>2.067571765865988</v>
+        <v>2.121402286609527</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1284311088244083</v>
+        <v>-0.1431684347392569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6911559104919434</v>
+        <v>0.6482131481170654</v>
       </c>
       <c r="F9" t="n">
-        <v>3.30205249786377</v>
+        <v>3.57640528678894</v>
       </c>
       <c r="G9" t="n">
-        <v>7.841670513153076</v>
+        <v>7.926381349563599</v>
       </c>
       <c r="H9" t="n">
-        <v>13.70395517349243</v>
+        <v>13.33050155639648</v>
       </c>
       <c r="I9" t="n">
-        <v>19.85504555702209</v>
+        <v>21.85446929931641</v>
       </c>
       <c r="J9" t="n">
-        <v>28.1622838973999</v>
+        <v>29.77932715415955</v>
       </c>
     </row>
     <row r="10">
@@ -755,28 +755,28 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>2.015312851289383</v>
+        <v>2.089703509374142</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3427877305787911</v>
+        <v>0.3069788380155508</v>
       </c>
       <c r="E10" t="n">
-        <v>1.966593265533447</v>
+        <v>1.881134271621704</v>
       </c>
       <c r="F10" t="n">
-        <v>10.45799803733826</v>
+        <v>8.93046236038208</v>
       </c>
       <c r="G10" t="n">
-        <v>21.14957404136658</v>
+        <v>22.7820508480072</v>
       </c>
       <c r="H10" t="n">
-        <v>34.95737242698669</v>
+        <v>38.12086820602417</v>
       </c>
       <c r="I10" t="n">
-        <v>57.57587814331055</v>
+        <v>57.3908429145813</v>
       </c>
       <c r="J10" t="n">
-        <v>74.62789177894592</v>
+        <v>77.6173620223999</v>
       </c>
     </row>
     <row r="11">
@@ -789,28 +789,28 @@
         <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>2.022832436916748</v>
+        <v>2.139353868657435</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6427059546846998</v>
+        <v>0.5955661884872816</v>
       </c>
       <c r="E11" t="n">
-        <v>4.647416353225708</v>
+        <v>3.404097318649292</v>
       </c>
       <c r="F11" t="n">
-        <v>14.83397269248962</v>
+        <v>20.09930968284607</v>
       </c>
       <c r="G11" t="n">
-        <v>45.40414476394653</v>
+        <v>47.48372435569763</v>
       </c>
       <c r="H11" t="n">
-        <v>76.5037407875061</v>
+        <v>79.73487138748169</v>
       </c>
       <c r="I11" t="n">
-        <v>115.2091810703278</v>
+        <v>115.6386544704437</v>
       </c>
       <c r="J11" t="n">
-        <v>156.8217470645905</v>
+        <v>162.0926489830017</v>
       </c>
     </row>
     <row r="12">
@@ -823,28 +823,28 @@
         <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>2.010464704933933</v>
+        <v>2.229654609136304</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9268872552907745</v>
+        <v>0.8246066669019595</v>
       </c>
       <c r="E12" t="n">
-        <v>7.094471454620361</v>
+        <v>4.924172639846802</v>
       </c>
       <c r="F12" t="n">
-        <v>43.91335844993591</v>
+        <v>46.39375019073486</v>
       </c>
       <c r="G12" t="n">
-        <v>81.24722385406494</v>
+        <v>91.54633402824402</v>
       </c>
       <c r="H12" t="n">
-        <v>139.0961756706238</v>
+        <v>152.3917012214661</v>
       </c>
       <c r="I12" t="n">
-        <v>203.9228603839874</v>
+        <v>219.1616234779358</v>
       </c>
       <c r="J12" t="n">
-        <v>281.6979162693024</v>
+        <v>298.0885677337646</v>
       </c>
     </row>
     <row r="13">
@@ -857,28 +857,28 @@
         <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>2.320455916973311</v>
+        <v>2.291210129735068</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9577215733951628</v>
+        <v>1.023000789160233</v>
       </c>
       <c r="E13" t="n">
-        <v>9.221681356430054</v>
+        <v>8.049740314483643</v>
       </c>
       <c r="F13" t="n">
-        <v>39.01959776878357</v>
+        <v>74.78190779685974</v>
       </c>
       <c r="G13" t="n">
-        <v>138.0655534267426</v>
+        <v>151.0710489749908</v>
       </c>
       <c r="H13" t="n">
-        <v>237.8152973651886</v>
+        <v>250.9308788776398</v>
       </c>
       <c r="I13" t="n">
-        <v>369.5960369110107</v>
+        <v>373.9530992507935</v>
       </c>
       <c r="J13" t="n">
-        <v>545.1276760101318</v>
+        <v>567.0521490573883</v>
       </c>
     </row>
   </sheetData>

--- a/result/zernike_14_moment_times_CPU_30P_6K.xlsx
+++ b/result/zernike_14_moment_times_CPU_30P_6K.xlsx
@@ -483,28 +483,28 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>1.121135658773199</v>
+        <v>1.049434113478027</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.388817701934042</v>
+        <v>-1.32446135266994</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04603338241577148</v>
+        <v>0.05940461158752441</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08498358726501465</v>
+        <v>0.07579493522644043</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1154410839080811</v>
+        <v>0.1258261203765869</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1747488975524902</v>
+        <v>0.1950745582580566</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2612740993499756</v>
+        <v>0.2791497707366943</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3599746227264404</v>
+        <v>0.3652119636535645</v>
       </c>
     </row>
     <row r="3">
@@ -517,28 +517,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>1.240792170502693</v>
+        <v>1.122581346593827</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.9943797279126607</v>
+        <v>-0.9011233100016718</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1209075450897217</v>
+        <v>0.1519858837127686</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1970436573028564</v>
+        <v>0.2239441871643066</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3442380428314209</v>
+        <v>0.3679609298706055</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5460958480834961</v>
+        <v>0.563103199005127</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7810475826263428</v>
+        <v>0.8046808242797852</v>
       </c>
       <c r="J3" t="n">
-        <v>1.084566831588745</v>
+        <v>1.114017248153687</v>
       </c>
     </row>
     <row r="4">
@@ -551,28 +551,28 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>1.305564324593402</v>
+        <v>1.17757413705497</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6259351298887873</v>
+        <v>-0.5346091540845219</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2797458171844482</v>
+        <v>0.3491396903991699</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4919202327728271</v>
+        <v>0.5482480525970459</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8599386215209961</v>
+        <v>0.914262056350708</v>
       </c>
       <c r="H4" t="n">
-        <v>1.377722978591919</v>
+        <v>1.428194761276245</v>
       </c>
       <c r="I4" t="n">
-        <v>2.038942337036133</v>
+        <v>2.033926486968994</v>
       </c>
       <c r="J4" t="n">
-        <v>2.83875584602356</v>
+        <v>2.824205160140991</v>
       </c>
     </row>
     <row r="5">
@@ -585,28 +585,28 @@
         <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>1.29840911826015</v>
+        <v>1.355341696004776</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2963277715806527</v>
+        <v>-0.3479333029317594</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5889532566070557</v>
+        <v>0.5267529487609863</v>
       </c>
       <c r="F5" t="n">
-        <v>1.066093444824219</v>
+        <v>0.972832202911377</v>
       </c>
       <c r="G5" t="n">
-        <v>1.840552568435669</v>
+        <v>1.735344171524048</v>
       </c>
       <c r="H5" t="n">
-        <v>2.904454469680786</v>
+        <v>2.803817987442017</v>
       </c>
       <c r="I5" t="n">
-        <v>4.282859086990356</v>
+        <v>4.176432609558105</v>
       </c>
       <c r="J5" t="n">
-        <v>5.948359966278076</v>
+        <v>5.854316473007202</v>
       </c>
     </row>
     <row r="6">
@@ -619,28 +619,28 @@
         <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>1.318510317595133</v>
+        <v>1.408533083259453</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.04900194102716383</v>
+        <v>-0.1184255151267992</v>
       </c>
       <c r="E6" t="n">
-        <v>1.057173490524292</v>
+        <v>0.8858768939971924</v>
       </c>
       <c r="F6" t="n">
-        <v>1.867565870285034</v>
+        <v>1.725807905197144</v>
       </c>
       <c r="G6" t="n">
-        <v>3.30520486831665</v>
+        <v>3.147136449813843</v>
       </c>
       <c r="H6" t="n">
-        <v>5.288453340530396</v>
+        <v>5.137155771255493</v>
       </c>
       <c r="I6" t="n">
-        <v>7.848483562469482</v>
+        <v>7.700342655181885</v>
       </c>
       <c r="J6" t="n">
-        <v>10.98185634613037</v>
+        <v>10.82879495620728</v>
       </c>
     </row>
     <row r="7">
@@ -653,28 +653,28 @@
         <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>1.3552131209084</v>
+        <v>1.455244443520465</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1399570298821159</v>
+        <v>0.07503617736336016</v>
       </c>
       <c r="E7" t="n">
-        <v>1.630644559860229</v>
+        <v>1.37419581413269</v>
       </c>
       <c r="F7" t="n">
-        <v>3.00954008102417</v>
+        <v>2.796983242034912</v>
       </c>
       <c r="G7" t="n">
-        <v>5.202863931655884</v>
+        <v>5.208581447601318</v>
       </c>
       <c r="H7" t="n">
-        <v>8.580701112747192</v>
+        <v>8.587955474853516</v>
       </c>
       <c r="I7" t="n">
-        <v>12.91218638420105</v>
+        <v>12.93510437011719</v>
       </c>
       <c r="J7" t="n">
-        <v>18.21428728103638</v>
+        <v>18.24805927276611</v>
       </c>
     </row>
     <row r="8">
@@ -687,28 +687,28 @@
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>2.153771242489142</v>
+        <v>2.027052124077824</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7256228726643903</v>
+        <v>-0.6758550426582818</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1736469268798828</v>
+        <v>0.2114658355712891</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8527853488922119</v>
+        <v>0.8627870082855225</v>
       </c>
       <c r="G8" t="n">
-        <v>2.313364267349243</v>
+        <v>1.897334098815918</v>
       </c>
       <c r="H8" t="n">
-        <v>4.047074556350708</v>
+        <v>3.641249179840088</v>
       </c>
       <c r="I8" t="n">
-        <v>5.690278053283691</v>
+        <v>5.416517496109009</v>
       </c>
       <c r="J8" t="n">
-        <v>8.003459692001343</v>
+        <v>7.99049186706543</v>
       </c>
     </row>
     <row r="9">
@@ -721,28 +721,28 @@
         <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>2.121402286609527</v>
+        <v>2.069556193535148</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1431684347392569</v>
+        <v>-0.09837423895241038</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6482131481170654</v>
+        <v>0.709378719329834</v>
       </c>
       <c r="F9" t="n">
-        <v>3.57640528678894</v>
+        <v>3.974872827529907</v>
       </c>
       <c r="G9" t="n">
-        <v>7.926381349563599</v>
+        <v>8.05004620552063</v>
       </c>
       <c r="H9" t="n">
-        <v>13.33050155639648</v>
+        <v>13.58329892158508</v>
       </c>
       <c r="I9" t="n">
-        <v>21.85446929931641</v>
+        <v>23.20837879180908</v>
       </c>
       <c r="J9" t="n">
-        <v>29.77932715415955</v>
+        <v>29.41134929656982</v>
       </c>
     </row>
     <row r="10">
@@ -755,28 +755,28 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>2.089703509374142</v>
+        <v>2.094418403259961</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3069788380155508</v>
+        <v>0.3101185625344469</v>
       </c>
       <c r="E10" t="n">
-        <v>1.881134271621704</v>
+        <v>1.761462450027466</v>
       </c>
       <c r="F10" t="n">
-        <v>8.93046236038208</v>
+        <v>11.06167888641357</v>
       </c>
       <c r="G10" t="n">
-        <v>22.7820508480072</v>
+        <v>21.14291548728943</v>
       </c>
       <c r="H10" t="n">
-        <v>38.12086820602417</v>
+        <v>36.20184206962585</v>
       </c>
       <c r="I10" t="n">
-        <v>57.3908429145813</v>
+        <v>56.36741161346436</v>
       </c>
       <c r="J10" t="n">
-        <v>77.6173620223999</v>
+        <v>83.28043484687805</v>
       </c>
     </row>
     <row r="11">
@@ -789,28 +789,28 @@
         <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>2.139353868657435</v>
+        <v>2.144188046171119</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5955661884872816</v>
+        <v>0.5998848012016404</v>
       </c>
       <c r="E11" t="n">
-        <v>3.404097318649292</v>
+        <v>3.358285427093506</v>
       </c>
       <c r="F11" t="n">
-        <v>20.09930968284607</v>
+        <v>21.1325318813324</v>
       </c>
       <c r="G11" t="n">
-        <v>47.48372435569763</v>
+        <v>45.50109028816223</v>
       </c>
       <c r="H11" t="n">
-        <v>79.73487138748169</v>
+        <v>90.02676582336426</v>
       </c>
       <c r="I11" t="n">
-        <v>115.6386544704437</v>
+        <v>117.2499270439148</v>
       </c>
       <c r="J11" t="n">
-        <v>162.0926489830017</v>
+        <v>156.095981836319</v>
       </c>
     </row>
     <row r="12">
@@ -823,28 +823,28 @@
         <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>2.229654609136304</v>
+        <v>2.166442978639073</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8246066669019595</v>
+        <v>0.8519879726230651</v>
       </c>
       <c r="E12" t="n">
-        <v>4.924172639846802</v>
+        <v>6.867301940917969</v>
       </c>
       <c r="F12" t="n">
-        <v>46.39375019073486</v>
+        <v>31.19671535491943</v>
       </c>
       <c r="G12" t="n">
-        <v>91.54633402824402</v>
+        <v>83.82868576049805</v>
       </c>
       <c r="H12" t="n">
-        <v>152.3917012214661</v>
+        <v>150.9204435348511</v>
       </c>
       <c r="I12" t="n">
-        <v>219.1616234779358</v>
+        <v>241.4251625537872</v>
       </c>
       <c r="J12" t="n">
-        <v>298.0885677337646</v>
+        <v>306.4484634399414</v>
       </c>
     </row>
     <row r="13">
@@ -857,28 +857,28 @@
         <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>2.291210129735068</v>
+        <v>2.352868359040567</v>
       </c>
       <c r="D13" t="n">
-        <v>1.023000789160233</v>
+        <v>1.017781673295846</v>
       </c>
       <c r="E13" t="n">
-        <v>8.049740314483643</v>
+        <v>9.99565315246582</v>
       </c>
       <c r="F13" t="n">
-        <v>74.78190779685974</v>
+        <v>50.97368025779724</v>
       </c>
       <c r="G13" t="n">
-        <v>151.0710489749908</v>
+        <v>161.9142677783966</v>
       </c>
       <c r="H13" t="n">
-        <v>250.9308788776398</v>
+        <v>277.4715676307678</v>
       </c>
       <c r="I13" t="n">
-        <v>373.9530992507935</v>
+        <v>467.8465960025787</v>
       </c>
       <c r="J13" t="n">
-        <v>567.0521490573883</v>
+        <v>630.7438404560089</v>
       </c>
     </row>
   </sheetData>
